--- a/classfiers/chain/randomForest/smote/chain-randomForest-smote-results.xlsx
+++ b/classfiers/chain/randomForest/smote/chain-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7194244604316548</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9997749999999999</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9978015075376885</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9113595505617977</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9433836389534989</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9995153015075375</v>
       </c>
     </row>
   </sheetData>
